--- a/Excel2Proto/excel/MonsterCfg.xlsx
+++ b/Excel2Proto/excel/MonsterCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541CF38E-2752-4132-90AB-E0DBD9314A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterBaseCfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +22,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>NickName</t>
+  </si>
+  <si>
     <t>Prefab</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
     <t>DashDistance</t>
   </si>
   <si>
+    <t>BehaviourTree</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -49,6 +49,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>英文名称</t>
+  </si>
+  <si>
     <t>预制体路径</t>
   </si>
   <si>
@@ -58,19 +61,29 @@
     <t>角色的冲刺距离</t>
   </si>
   <si>
+    <t>行为树名称</t>
+  </si>
+  <si>
     <t>丛林蝙蝠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Agent/Monsers/JungleBat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Prefabs/Agent/Monsters/JungleBat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,30 +92,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -110,9 +438,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -123,26 +693,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,31 +1043,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -469,14 +1084,23 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
       <c r="H1" s="1">
         <v>8</v>
       </c>
       <c r="I1" s="1">
         <v>9</v>
       </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,61 +1116,85 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/MonsterCfg.xlsx
+++ b/Excel2Proto/excel/MonsterCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,12 @@
     <t>BehaviourTree</t>
   </si>
   <si>
+    <t>AttackRadius</t>
+  </si>
+  <si>
+    <t>InteractRadius</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>行为树名称</t>
+  </si>
+  <si>
+    <t>攻击半径</t>
+  </si>
+  <si>
+    <t>交互半径</t>
   </si>
   <si>
     <t>丛林蝙蝠</t>
@@ -1051,10 +1063,10 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1065,7 +1077,8 @@
     <col min="6" max="6" width="19.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.2166666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1100,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,65 +1135,83 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1189,7 +1220,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Proto/excel/MonsterCfg.xlsx
+++ b/Excel2Proto/excel/MonsterCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06376CE-254A-472B-A05F-57133DADCFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterBaseCfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +43,33 @@
     <t>InteractRadius</t>
   </si>
   <si>
+    <t>FollowRadius</t>
+  </si>
+  <si>
+    <t>#Attr</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>DefenseRate</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>CriticalDmgRate</t>
+  </si>
+  <si>
+    <t>DodgeRate</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -58,6 +79,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -82,6 +106,33 @@
     <t>交互半径</t>
   </si>
   <si>
+    <t>跟随半径</t>
+  </si>
+  <si>
+    <t>角色属性</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>基础攻击值</t>
+  </si>
+  <si>
+    <t>伤害减免系数</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>闪避率</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>丛林蝙蝠</t>
   </si>
   <si>
@@ -89,100 +140,23 @@
   </si>
   <si>
     <t>Prefabs/Agent/Monsters/JungleBat</t>
-  </si>
-  <si>
-    <t>#Attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDmgRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +164,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,19 +171,348 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,9 +520,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -228,29 +772,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -537,40 +1125,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="9" max="10" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.8833333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -598,7 +1187,7 @@
       <c r="I1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="J1" s="1">
         <v>10</v>
       </c>
       <c r="L1" s="1">
@@ -619,8 +1208,11 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,149 +1240,158 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -799,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -807,31 +1408,34 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
         <v>100</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>1.5</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/MonsterCfg.xlsx
+++ b/Excel2Proto/excel/MonsterCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterBaseCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>FollowRadius</t>
   </si>
   <si>
+    <t>TurnSpeed</t>
+  </si>
+  <si>
     <t>#Attr</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>跟随半径</t>
+  </si>
+  <si>
+    <t>转身速率</t>
   </si>
   <si>
     <t>角色属性</t>
@@ -145,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -174,55 +180,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +237,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -312,7 +297,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,49 +333,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,121 +471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,21 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,6 +556,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,148 +629,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,52 +787,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1131,12 +1137,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1147,19 +1153,19 @@
     <col min="6" max="6" width="19.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.2166666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="10" width="22.4416666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1083333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.8833333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="9" max="11" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.2166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.8833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1190,7 +1196,7 @@
       <c r="J1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="K1" s="1">
         <v>11</v>
       </c>
       <c r="M1" s="1">
@@ -1211,8 +1217,11 @@
       <c r="R1" s="1">
         <v>17</v>
       </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,10 +1252,10 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1267,131 +1276,140 @@
       <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1400,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1411,25 +1429,28 @@
       <c r="J5" s="1">
         <v>8</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="M5" s="1">
         <v>100</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Excel2Proto/excel/MonsterCfg.xlsx
+++ b/Excel2Proto/excel/MonsterCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31262A-781A-4074-94A1-34A68707F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterBaseCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -146,19 +152,29 @@
   </si>
   <si>
     <t>Prefabs/Agent/Monsters/JungleBat</t>
+  </si>
+  <si>
+    <t>独眼绿灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForestCyclops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Agent/Monsters/ForestCyclops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,345 +196,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,255 +225,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,67 +241,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,41 +547,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="31.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.2166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="11" width="22.4416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.2166666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1083333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.8833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="11" width="22.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1221,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1454,9 +869,65 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1080</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>